--- a/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
+++ b/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13608"/>
+    <workbookView windowWidth="30720" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -49,13 +49,37 @@
     <t>Id</t>
   </si>
   <si>
-    <t>数据库地址</t>
-  </si>
-  <si>
-    <t>数据库名</t>
-  </si>
-  <si>
-    <t>说明</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
   </si>
   <si>
     <t>mongodb://127.0.0.1</t>
@@ -64,7 +88,13 @@
     <t>ET1</t>
   </si>
   <si>
-    <t>游戏区</t>
+    <t>游戏区1服</t>
+  </si>
+  <si>
+    <t>ET2</t>
+  </si>
+  <si>
+    <t>游戏区2服</t>
   </si>
   <si>
     <t>机器人区</t>
@@ -83,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,23 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -261,8 +277,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,181 +293,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,120 +478,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -691,197 +587,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,6 +789,48 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -943,6 +838,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="##var" dataDxfId="0"/>
+    <tableColumn id="2" name="id" dataDxfId="1"/>
+    <tableColumn id="3" name="d_b_connection" dataDxfId="2"/>
+    <tableColumn id="4" name="d_b_name" dataDxfId="3"/>
+    <tableColumn id="5" name="#desc" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,194 +1141,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.22222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7777777777778" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.4444444444444" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.22222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.4444444444444" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="9.11111111111111"/>
-    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="18.75" spans="1:5">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="17.4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+    <row r="5" spans="2:5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14">
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16">
+    <row r="7" spans="2:5">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>